--- a/W5/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W5/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -2979,9 +2979,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3329,7 +3329,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
